--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CDF/15/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CDF/15/seed3/result_data_RandomForest.xlsx
@@ -559,7 +559,7 @@
         <v>-9.31</v>
       </c>
       <c r="E7" t="n">
-        <v>12.001</v>
+        <v>11.7831</v>
       </c>
     </row>
     <row r="8">
@@ -570,7 +570,7 @@
         <v>7.52</v>
       </c>
       <c r="C8" t="n">
-        <v>-10.9749</v>
+        <v>-10.93649999999999</v>
       </c>
       <c r="D8" t="n">
         <v>-7.09</v>
@@ -604,7 +604,7 @@
         <v>9.35</v>
       </c>
       <c r="C10" t="n">
-        <v>-12.99150000000001</v>
+        <v>-13.00700000000001</v>
       </c>
       <c r="D10" t="n">
         <v>-8.93</v>
@@ -638,7 +638,7 @@
         <v>5.38</v>
       </c>
       <c r="C12" t="n">
-        <v>-14.3373</v>
+        <v>-14.41960000000001</v>
       </c>
       <c r="D12" t="n">
         <v>-10.06</v>
@@ -658,7 +658,7 @@
         <v>-13.63</v>
       </c>
       <c r="D13" t="n">
-        <v>-7.739400000000002</v>
+        <v>-7.785200000000003</v>
       </c>
       <c r="E13" t="n">
         <v>12.56</v>
@@ -740,7 +740,7 @@
         <v>5.81</v>
       </c>
       <c r="C18" t="n">
-        <v>-14.2864</v>
+        <v>-14.30670000000001</v>
       </c>
       <c r="D18" t="n">
         <v>-8.869999999999999</v>
@@ -780,7 +780,7 @@
         <v>-8.140000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>13.20139999999999</v>
+        <v>13.14749999999999</v>
       </c>
     </row>
     <row r="21">
